--- a/dataset_test_pruebas.xlsx
+++ b/dataset_test_pruebas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AARON\Desktop\IngenierosMercadologos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20833EBE-6440-4DD6-B28B-D07146D6EB1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED5E573-7A61-4315-A318-31D937743CC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -170,8 +170,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="d\.m"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -240,7 +241,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -248,11 +249,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -470,7 +467,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="182" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
       <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
@@ -493,7 +490,7 @@
     <col min="16" max="16" width="8.7109375" customWidth="1"/>
     <col min="17" max="17" width="21.42578125" customWidth="1"/>
     <col min="18" max="18" width="30.7109375" customWidth="1"/>
-    <col min="19" max="19" width="12.42578125" style="7" customWidth="1"/>
+    <col min="19" max="19" width="12.42578125" customWidth="1"/>
     <col min="20" max="20" width="17" customWidth="1"/>
     <col min="21" max="21" width="22.85546875" customWidth="1"/>
   </cols>
@@ -553,7 +550,7 @@
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="T1" s="1" t="s">
@@ -610,7 +607,7 @@
       <c r="R2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="S2" s="6">
+      <c r="S2" s="4">
         <v>11</v>
       </c>
       <c r="T2" s="4">
@@ -665,7 +662,7 @@
       <c r="R3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="S3" s="6">
+      <c r="S3" s="4">
         <v>50.32</v>
       </c>
       <c r="T3" s="4">
@@ -718,7 +715,7 @@
       <c r="R4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="S4" s="6">
+      <c r="S4" s="5">
         <v>44778</v>
       </c>
       <c r="T4" s="4">
@@ -765,7 +762,7 @@
       <c r="R5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="S5" s="6">
+      <c r="S5" s="4">
         <v>31</v>
       </c>
       <c r="T5" s="4">
@@ -818,7 +815,7 @@
       <c r="R6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="S6" s="6">
+      <c r="S6" s="4">
         <v>3.22</v>
       </c>
       <c r="T6" s="4">
@@ -869,7 +866,7 @@
       <c r="R7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="S7" s="6">
+      <c r="S7" s="4">
         <v>143.94</v>
       </c>
       <c r="T7" s="4"/>
@@ -918,7 +915,7 @@
       <c r="R8" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="S8" s="6"/>
+      <c r="S8" s="4"/>
       <c r="T8" s="4">
         <v>90.88</v>
       </c>
@@ -969,7 +966,7 @@
       <c r="R9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="S9" s="6">
+      <c r="S9" s="4">
         <v>16.02</v>
       </c>
       <c r="T9" s="4">
@@ -1022,7 +1019,7 @@
       <c r="R10" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="S10" s="6">
+      <c r="S10" s="4">
         <v>300</v>
       </c>
       <c r="T10" s="4"/>
@@ -1075,7 +1072,7 @@
       <c r="R11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="S11" s="6">
+      <c r="S11" s="4">
         <v>900.11</v>
       </c>
       <c r="T11" s="4">
@@ -1086,6 +1083,6 @@
   </sheetData>
   <autoFilter ref="B1:U11" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>